--- a/Data/Données_Suivi_Bio_Etudiant.xlsx
+++ b/Data/Données_Suivi_Bio_Etudiant.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derbre_f\Documents\Enseignement\2023-2024\Digisport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B926FD-8E9C-421D-8E46-D3B7B0E5336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -299,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -381,24 +391,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -412,35 +415,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Texte explicatif 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Texte explicatif 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,31 +715,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625"/>
-    <col min="3" max="3" width="11.44140625" style="9"/>
-    <col min="4" max="4" width="19.33203125" style="9" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="9"/>
-    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="19.28515625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="6"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -750,10 +747,10 @@
       <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I1" t="s">
@@ -767,65 +764,65 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>45107</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>45245</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>45107</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>45245</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>45107</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>45245</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>45107</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>45245</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:10" ht="46.15" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1">
+      <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>25.5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>25.9</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="11">
         <v>22.5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="11">
         <v>22.9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>27.4</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>27.8</v>
       </c>
       <c r="I4">
@@ -836,28 +833,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>74</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>73.2</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="11">
         <v>81</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="11">
         <v>84</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>83.4</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>84.1</v>
       </c>
       <c r="I5">
@@ -867,29 +864,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="16.149999999999999" customHeight="1">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>9</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="11">
         <v>9.4</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>10.119999999999999</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>9.5</v>
       </c>
       <c r="I6">
@@ -900,35 +897,35 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>21</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>20</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="11">
         <v>19</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="11">
         <v>19.5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>21.5</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>22</v>
       </c>
       <c r="I8">
@@ -939,28 +936,28 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>44.2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>42.5</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="11">
         <v>46.1</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="11">
         <v>46.4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>42.1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>43</v>
       </c>
       <c r="I9">
@@ -971,28 +968,28 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>48.1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>46.4</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="11">
         <v>49.1</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="11">
         <v>49.2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>45.4</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>46</v>
       </c>
       <c r="I10">
@@ -1003,16 +1000,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" t="s">
         <v>79</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>48</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>38</v>
       </c>
       <c r="E11">
@@ -1021,10 +1018,10 @@
       <c r="F11">
         <v>44</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>51</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>53</v>
       </c>
       <c r="I11">
@@ -1035,31 +1032,31 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>10.3</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>11.45</v>
       </c>
       <c r="E14">
@@ -1068,10 +1065,10 @@
       <c r="F14">
         <v>10.95</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>9.5749999999999993</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>9.5749999999999993</v>
       </c>
       <c r="I14">
@@ -1082,16 +1079,16 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>0.89</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>0.82499999999999996</v>
       </c>
       <c r="E15">
@@ -1100,10 +1097,10 @@
       <c r="F15">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>0.81</v>
       </c>
       <c r="I15">
@@ -1114,16 +1111,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>0.59</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>0.34499999999999997</v>
       </c>
       <c r="E16">
@@ -1132,10 +1129,10 @@
       <c r="F16">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>0.55000000000000004</v>
       </c>
       <c r="I16">
@@ -1146,16 +1143,16 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>138.5</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>126.5</v>
       </c>
       <c r="E17">
@@ -1164,10 +1161,10 @@
       <c r="F17">
         <v>412</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>142.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>152.5</v>
       </c>
       <c r="I17">
@@ -1178,16 +1175,16 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>116</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>57.5</v>
       </c>
       <c r="E18">
@@ -1196,10 +1193,10 @@
       <c r="F18">
         <v>421.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>161</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>69.5</v>
       </c>
       <c r="I18">
@@ -1210,16 +1207,16 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>6.65</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>5.9</v>
       </c>
       <c r="E19">
@@ -1228,10 +1225,10 @@
       <c r="F19">
         <v>5.07</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>4.7</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <v>4.5749999999999993</v>
       </c>
       <c r="I19">
@@ -1242,16 +1239,16 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>0.45999999999999996</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>1.9</v>
       </c>
       <c r="E20">
@@ -1260,10 +1257,10 @@
       <c r="F20">
         <v>0.53</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I20">
@@ -1274,16 +1271,16 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>139.5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>138.5</v>
       </c>
       <c r="E21">
@@ -1292,10 +1289,10 @@
       <c r="F21">
         <v>141.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>143</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>143</v>
       </c>
       <c r="I21">
@@ -1306,16 +1303,16 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>4.07</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>4.0549999999999997</v>
       </c>
       <c r="E22">
@@ -1324,10 +1321,10 @@
       <c r="F22">
         <v>4.3449999999999998</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>4.125</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>4.34</v>
       </c>
       <c r="I22">
@@ -1338,16 +1335,16 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>2.0700000000000003</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>2.2949999999999999</v>
       </c>
       <c r="E23">
@@ -1356,10 +1353,10 @@
       <c r="F23">
         <v>2.335</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <v>2.4750000000000001</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <v>2.48</v>
       </c>
       <c r="I23">
@@ -1370,28 +1367,28 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>24</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>32</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="12">
         <v>27</v>
       </c>
       <c r="F24">
         <v>254</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <v>27</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="13">
         <v>25</v>
       </c>
       <c r="I24">
@@ -1402,16 +1399,16 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>129</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>126</v>
       </c>
       <c r="E25">
@@ -1420,10 +1417,10 @@
       <c r="F25">
         <v>146.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <v>155</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <v>144</v>
       </c>
       <c r="I25">
@@ -1434,16 +1431,16 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>63.9</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>46.7</v>
       </c>
       <c r="E26">
@@ -1452,10 +1449,10 @@
       <c r="F26">
         <v>34.9</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>47.2</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>40.049999999999997</v>
       </c>
       <c r="I26">
@@ -1466,16 +1463,16 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>56.2</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>69.449999999999989</v>
       </c>
       <c r="E27">
@@ -1484,10 +1481,10 @@
       <c r="F27">
         <v>116</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>90.55</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="6">
         <v>102</v>
       </c>
       <c r="I27">
@@ -1498,16 +1495,16 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>63</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>82</v>
       </c>
       <c r="E28">
@@ -1516,10 +1513,10 @@
       <c r="F28">
         <v>60</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>64</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <v>62.5</v>
       </c>
       <c r="I28">
@@ -1530,16 +1527,16 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>69.400000000000006</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>75.2</v>
       </c>
       <c r="E29">
@@ -1548,10 +1545,10 @@
       <c r="F29">
         <v>79.400000000000006</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>75.400000000000006</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="6">
         <v>76.5</v>
       </c>
       <c r="I29">
@@ -1562,289 +1559,289 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1">
-      <c r="A31" s="26" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="17">
         <v>6080</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="17">
         <v>6870</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="18">
         <v>6795</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="18">
         <v>6760</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="19">
         <v>5240</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="19">
         <v>5675</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="18">
         <v>4090</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="18">
         <v>3665</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>41.900000000000006</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>58.1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>53.85</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>48.25</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>47</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <v>48.35</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>47.75</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32">
         <v>43.5</v>
       </c>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:18" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>42.45</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>26.85</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>36.85</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>42.75</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>38.450000000000003</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>36.950000000000003</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>41.05</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>10.45</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>7.3000000000000007</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>6.15</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>5.9</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <v>6.25</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>12</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>12.149999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>4.45</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>5.2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>1.55</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>2.25</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <v>7.6</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="6">
         <v>6.6999999999999993</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>2.1</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-    </row>
-    <row r="36" spans="1:18" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>0.75</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>0.8</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>0.44999999999999996</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36">
         <v>0.6</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <v>1.05</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="6">
         <v>0.9</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>1.2</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>1.25</v>
       </c>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:18" s="1" customFormat="1">
-      <c r="A37" s="1" t="s">
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>201.5</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>209.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>261.5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>271.5</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="6">
         <v>206.5</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="6">
         <v>224</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>252.5</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37">
         <v>249.5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="1" customFormat="1">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>4.82</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>5.1950000000000003</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>5.66</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>5.9</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="6">
         <v>4.7450000000000001</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="6">
         <v>4.72</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>5.01</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>14.4</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>13.5</v>
       </c>
       <c r="E39">
@@ -1853,182 +1850,182 @@
       <c r="F39">
         <v>16.100000000000001</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="6">
         <v>14.5</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="6">
         <v>14.600000000000001</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>13.5</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>12.9</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>86</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>83.35</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="12">
         <v>79.599999999999994</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="12">
         <v>78.099999999999994</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="6">
         <v>88.949999999999989</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="6">
         <v>87.3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>82.3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40">
         <v>81.8</v>
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>41.45</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>38.4</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="12">
         <v>45.05</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="12">
         <v>46.1</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="6">
         <v>42.2</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="6">
         <v>41.2</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>39.6</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41">
         <v>37.6</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="8">
         <f t="shared" ref="C42:J42" si="0">C39/C38*10</f>
         <v>29.875518672199171</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <f t="shared" si="0"/>
         <v>25.98652550529355</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="12">
         <f t="shared" si="0"/>
         <v>27.031802120141343</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="12">
         <f t="shared" si="0"/>
         <v>27.288135593220343</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>30.558482613277135</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="8">
         <f t="shared" si="0"/>
         <v>30.932203389830516</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="12">
         <f t="shared" si="0"/>
         <v>26.946107784431138</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="12">
         <f t="shared" si="0"/>
         <v>26.819126819126822</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <f t="shared" ref="C43:H43" si="1">C39/C41*100</f>
         <v>34.740651387213511</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <f t="shared" si="1"/>
         <v>35.15625</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <f t="shared" si="1"/>
         <v>33.962264150943398</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="11">
         <f t="shared" si="1"/>
         <v>34.924078091106296</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="8">
         <f t="shared" si="1"/>
         <v>34.360189573459714</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="8">
         <f t="shared" si="1"/>
         <v>35.436893203883493</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="11">
         <f>I39/I41*100</f>
         <v>34.090909090909086</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="11">
         <f>J39/J41*100</f>
         <v>34.308510638297875</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>2.1749999999999998</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="8">
         <v>2.0499999999999998</v>
       </c>
       <c r="E45">
@@ -2037,30 +2034,30 @@
       <c r="F45">
         <v>2.29</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="6">
         <v>2.3499999999999996</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="6">
         <v>2.36</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>2.78</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="8">
         <v>104</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>154</v>
       </c>
       <c r="E46">
@@ -2069,30 +2066,30 @@
       <c r="F46">
         <v>49.2</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <v>208</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>158</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>35</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>18.3</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>11.2</v>
       </c>
       <c r="E47">
@@ -2101,30 +2098,30 @@
       <c r="F47">
         <v>23.1</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="6">
         <v>20.6</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="6">
         <v>15.05</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>18.350000000000001</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>12.25</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>33.450000000000003</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>19.8</v>
       </c>
       <c r="E48">
@@ -2133,70 +2130,70 @@
       <c r="F48">
         <v>40.200000000000003</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="6">
         <v>33.1</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="6">
         <v>25.4</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>29.54</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="20">
         <v>596</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="20">
         <v>516</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="12">
         <v>461</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="12">
         <v>424</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="16">
         <v>487</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="16">
         <v>401</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="12">
         <v>353</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="12">
         <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="8">
         <v>27.4</v>
       </c>
       <c r="E51">
@@ -2205,10 +2202,10 @@
       <c r="F51">
         <v>20.399999999999999</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="6">
         <v>21.6</v>
       </c>
       <c r="I51">
@@ -2219,16 +2216,16 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <v>3.51</v>
       </c>
       <c r="E52">
@@ -2237,10 +2234,10 @@
       <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I52" t="s">
@@ -2251,24 +2248,24 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="8">
         <v>511.5</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="8">
         <v>515.5</v>
       </c>
       <c r="E54">
@@ -2277,10 +2274,10 @@
       <c r="F54">
         <v>656.5</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="6">
         <v>434</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="6">
         <v>525.5</v>
       </c>
       <c r="I54">
@@ -2291,16 +2288,16 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="8">
         <v>338.5</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="8">
         <v>499.5</v>
       </c>
       <c r="E55">
@@ -2309,10 +2306,10 @@
       <c r="F55">
         <v>360</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="6">
         <v>628.5</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="6">
         <v>662</v>
       </c>
       <c r="I55">
@@ -2323,16 +2320,16 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="8">
         <v>10.7</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="8">
         <v>7.7850000000000001</v>
       </c>
       <c r="E56">
@@ -2341,10 +2338,10 @@
       <c r="F56">
         <v>7.7949999999999999</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="6">
         <v>9.3650000000000002</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="6">
         <v>8.2800000000000011</v>
       </c>
       <c r="I56">
@@ -2355,16 +2352,16 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="8">
         <v>8.84</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="8">
         <v>13.55</v>
       </c>
       <c r="E57">
@@ -2373,10 +2370,10 @@
       <c r="F57">
         <v>17.600000000000001</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="6">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="6">
         <v>11.1</v>
       </c>
       <c r="I57">
@@ -2387,16 +2384,16 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="8">
         <v>336.5</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="8">
         <v>275.5</v>
       </c>
       <c r="E58">
@@ -2405,10 +2402,10 @@
       <c r="F58">
         <v>604.5</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="6">
         <v>493</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="6">
         <v>503</v>
       </c>
       <c r="I58">
@@ -2419,16 +2416,16 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="8">
         <v>11.85</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>13.1</v>
       </c>
       <c r="E59">
@@ -2437,10 +2434,10 @@
       <c r="F59">
         <v>10.649999999999999</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="6">
         <v>10.7</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="6">
         <v>11.35</v>
       </c>
       <c r="I59">
@@ -2451,16 +2448,16 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="8">
         <v>24.35</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="8">
         <v>34.299999999999997</v>
       </c>
       <c r="E60">
@@ -2469,10 +2466,10 @@
       <c r="F60">
         <v>36.549999999999997</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="6">
         <v>33.1</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="6">
         <v>15.24</v>
       </c>
       <c r="I60">
@@ -2483,8 +2480,8 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Données_Suivi_Bio_Etudiant.xlsx
+++ b/Data/Données_Suivi_Bio_Etudiant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B926FD-8E9C-421D-8E46-D3B7B0E5336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0717B-6F19-4AF9-AB3F-0F517F973A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-1560" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -731,7 +731,7 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -788,8 +788,9 @@
       <c r="J2" s="1">
         <v>45245</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="46.15" customHeight="1">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="46.15" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>81</v>
       </c>
@@ -800,7 +801,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -832,7 +833,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -864,7 +865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -896,14 +897,14 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1">
+    <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -935,7 +936,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1">
+    <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -967,7 +968,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" customHeight="1">
+    <row r="10" spans="1:11" ht="15.6" customHeight="1">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" customHeight="1">
+    <row r="11" spans="1:11" ht="15.6" customHeight="1">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1031,14 +1032,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" customHeight="1">
+    <row r="12" spans="1:11" ht="15.6" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1047,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>10</v>
       </c>

--- a/Data/Données_Suivi_Bio_Etudiant.xlsx
+++ b/Data/Données_Suivi_Bio_Etudiant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0717B-6F19-4AF9-AB3F-0F517F973A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15879A9-AD39-4E1F-9F5F-8890CC4BDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1560" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="2385" windowWidth="21630" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -731,7 +731,7 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -789,8 +789,27 @@
         <v>45245</v>
       </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="46.15" customHeight="1">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="46.15" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>81</v>
       </c>
@@ -800,8 +819,28 @@
       <c r="F3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.149999999999999" customHeight="1">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.149999999999999" customHeight="1">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -833,7 +872,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+    <row r="5" spans="1:30" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -865,7 +904,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:30" ht="16.149999999999999" customHeight="1">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -897,14 +936,14 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
+    <row r="7" spans="1:30" ht="18" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
+    <row r="8" spans="1:30" ht="18" customHeight="1">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -936,7 +975,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
+    <row r="9" spans="1:30" ht="18" customHeight="1">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -968,7 +1007,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1">
+    <row r="10" spans="1:30" ht="15.6" customHeight="1">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1000,7 +1039,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1">
+    <row r="11" spans="1:30" ht="15.6" customHeight="1">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1032,14 +1071,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" customHeight="1">
+    <row r="12" spans="1:30" ht="15.6" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:30">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1086,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1118,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1150,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1143,7 +1182,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1214,7 @@
         <v>151.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1246,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1278,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1310,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1335,7 +1374,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1399,7 +1438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:30">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1502,7 @@
         <v>41.15</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1534,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:30">
       <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
@@ -1527,7 +1566,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:30">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1606,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:30">
       <c r="A31" s="11" t="s">
         <v>67</v>
       </c>
@@ -1598,8 +1637,28 @@
       <c r="J31" s="18">
         <v>3665</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1630,9 +1689,8 @@
       <c r="J32">
         <v>43.5</v>
       </c>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:18">
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1664,7 +1722,7 @@
         <v>41.05</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1696,7 +1754,7 @@
         <v>12.149999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1727,15 +1785,8 @@
       <c r="J35">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1766,9 +1817,8 @@
       <c r="J36">
         <v>1.25</v>
       </c>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1800,7 +1850,7 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:30">
       <c r="A38" s="11" t="s">
         <v>66</v>
       </c>
@@ -1832,7 +1882,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1864,7 +1914,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1896,7 +1946,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1928,7 +1978,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1967,8 +2017,28 @@
         <f t="shared" si="0"/>
         <v>26.819126819126822</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2000,15 +2070,35 @@
         <v>35.436893203883493</v>
       </c>
       <c r="I43" s="11">
-        <f>I39/I41*100</f>
+        <f t="shared" ref="I43:J43" si="2">I39/I41*100</f>
         <v>34.090909090909086</v>
       </c>
       <c r="J43" s="11">
-        <f>J39/J41*100</f>
+        <f t="shared" si="2"/>
         <v>34.308510638297875</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2016,7 +2106,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2048,7 +2138,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +2170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2112,7 +2202,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2144,7 +2234,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:30">
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
@@ -2152,7 +2242,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2183,8 +2273,28 @@
       <c r="J50" s="12">
         <v>493</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2216,7 +2326,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2248,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:30">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -2256,7 +2366,7 @@
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2288,7 +2398,7 @@
         <v>520.5</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2320,7 +2430,7 @@
         <v>958.5</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2352,7 +2462,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2384,7 +2494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2416,7 +2526,7 @@
         <v>493.5</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2448,7 +2558,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -2480,7 +2590,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:30">
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
     </row>

--- a/Data/Données_Suivi_Bio_Etudiant.xlsx
+++ b/Data/Données_Suivi_Bio_Etudiant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjetONSC\ProjetONSC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15879A9-AD39-4E1F-9F5F-8890CC4BDFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32A9511-F9C6-4D44-8049-2E8094A9BB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2385" windowWidth="21630" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:AD61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
